--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/R/Decosus/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmam\Documents\Github\Decosus\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538C74A-8E22-5D4F-8C4D-4F5E2F7B389C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCEF33B-CA74-4D75-87CF-F43500037311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="11112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
-    <sheet name="Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Map_1" sheetId="2" r:id="rId2"/>
     <sheet name="Map_2" sheetId="4" r:id="rId3"/>
-    <sheet name="Colour" sheetId="3" r:id="rId4"/>
+    <sheet name="Map_1b" sheetId="5" r:id="rId4"/>
+    <sheet name="Map_2b" sheetId="6" r:id="rId5"/>
+    <sheet name="Colour" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="477">
   <si>
     <t>Type</t>
   </si>
@@ -1425,13 +1427,52 @@
   </si>
   <si>
     <t>#1ba97f</t>
+  </si>
+  <si>
+    <t>Myeloid DC</t>
+  </si>
+  <si>
+    <t>B-cell</t>
+  </si>
+  <si>
+    <t>CD4+ Memory T-cell</t>
+  </si>
+  <si>
+    <t>CD4+ T-cell</t>
+  </si>
+  <si>
+    <t>CD8+ T-cell</t>
+  </si>
+  <si>
+    <t>CD8+ Memory T-cell</t>
+  </si>
+  <si>
+    <t>Memory B-cell</t>
+  </si>
+  <si>
+    <t>Cancer Associated Fibroblast</t>
+  </si>
+  <si>
+    <t>M1 Macrophage</t>
+  </si>
+  <si>
+    <t>M2 Macrophage</t>
+  </si>
+  <si>
+    <t>Plasmacytoid DC</t>
+  </si>
+  <si>
+    <t>Th1 cell</t>
+  </si>
+  <si>
+    <t>Uncharacterized cell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1989,7 +2030,67 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2356,12 +2457,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2383,7 +2484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2394,7 +2495,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2405,7 +2506,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2416,7 +2517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2427,7 +2528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2449,7 +2550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2460,7 +2561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +2572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2482,7 +2583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2493,7 +2594,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2504,7 +2605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2515,7 +2616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2526,7 +2627,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2537,7 +2638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2548,7 +2649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2570,7 +2671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2682,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2592,7 +2693,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2603,7 +2704,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2614,7 +2715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2625,7 +2726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2636,7 +2737,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2647,7 +2748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2658,7 +2759,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2669,7 +2770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2680,7 +2781,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2691,7 +2792,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2702,7 +2803,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2713,7 +2814,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2724,7 +2825,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2735,7 +2836,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2746,7 +2847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2757,7 +2858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2768,7 +2869,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2779,7 +2880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2790,7 +2891,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2801,7 +2902,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2812,7 +2913,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2823,7 +2924,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2834,7 +2935,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2845,7 +2946,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2856,7 +2957,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2867,7 +2968,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2878,7 +2979,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2889,7 +2990,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2900,7 +3001,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -2911,7 +3012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -2922,7 +3023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -2933,7 +3034,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2944,7 +3045,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -2955,7 +3056,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -2966,7 +3067,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -2977,7 +3078,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -2988,7 +3089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -2999,7 +3100,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -3010,7 +3111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3122,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3032,7 +3133,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -3043,7 +3144,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -3054,7 +3155,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -3065,7 +3166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -3076,7 +3177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -3087,7 +3188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -3098,7 +3199,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -3109,7 +3210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -3120,7 +3221,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -3131,7 +3232,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -3142,7 +3243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -3153,7 +3254,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3164,7 +3265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -3175,7 +3276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -3186,7 +3287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -3197,7 +3298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -3208,7 +3309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -3219,7 +3320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -3230,7 +3331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -3241,7 +3342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -3252,7 +3353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -3263,7 +3364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -3274,7 +3375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -3285,7 +3386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>66</v>
       </c>
@@ -3296,7 +3397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -3307,7 +3408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -3318,7 +3419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -3329,7 +3430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3340,7 +3441,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -3351,7 +3452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -3362,7 +3463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -3373,7 +3474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -3384,7 +3485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -3395,7 +3496,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -3406,7 +3507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -3417,7 +3518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -3428,7 +3529,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -3439,7 +3540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -3450,7 +3551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -3461,7 +3562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -3472,7 +3573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -3483,7 +3584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -3494,7 +3595,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -3505,7 +3606,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -3516,7 +3617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -3527,7 +3628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -3538,7 +3639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -3549,7 +3650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -3560,7 +3661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -3571,7 +3672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -3582,7 +3683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -3593,7 +3694,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -3604,7 +3705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -3615,7 +3716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -3626,7 +3727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -3637,7 +3738,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -3648,7 +3749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -3659,7 +3760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -3670,7 +3771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -3681,7 +3782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3692,7 +3793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -3703,7 +3804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3714,7 +3815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3725,7 +3826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -3736,7 +3837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -3747,7 +3848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -3758,7 +3859,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>42</v>
       </c>
@@ -3769,7 +3870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -3780,7 +3881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>42</v>
       </c>
@@ -3791,7 +3892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -3802,7 +3903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -3813,7 +3914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>42</v>
       </c>
@@ -3824,7 +3925,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -3835,7 +3936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -3846,7 +3947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -3857,7 +3958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -3868,7 +3969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3879,7 +3980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3890,7 +3991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3901,7 +4002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3912,7 +4013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3923,7 +4024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -3934,7 +4035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -3945,7 +4046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -3956,7 +4057,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -3967,7 +4068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -3978,7 +4079,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3989,7 +4090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4000,7 +4101,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -4011,7 +4112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -4022,7 +4123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -4033,7 +4134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -4044,7 +4145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>147</v>
       </c>
@@ -4055,7 +4156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -4066,7 +4167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -4077,7 +4178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -4088,7 +4189,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>147</v>
       </c>
@@ -4099,7 +4200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -4110,7 +4211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>147</v>
       </c>
@@ -4121,7 +4222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>147</v>
       </c>
@@ -4132,7 +4233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -4143,7 +4244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>102</v>
       </c>
@@ -4154,7 +4255,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>102</v>
       </c>
@@ -4165,7 +4266,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>102</v>
       </c>
@@ -4176,7 +4277,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>102</v>
       </c>
@@ -4187,7 +4288,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>102</v>
       </c>
@@ -4198,7 +4299,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>102</v>
       </c>
@@ -4209,7 +4310,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>102</v>
       </c>
@@ -4220,7 +4321,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>102</v>
       </c>
@@ -4231,7 +4332,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>102</v>
       </c>
@@ -4242,7 +4343,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>102</v>
       </c>
@@ -4253,7 +4354,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>154</v>
       </c>
@@ -4264,7 +4365,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>154</v>
       </c>
@@ -4275,7 +4376,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>154</v>
       </c>
@@ -4286,7 +4387,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>154</v>
       </c>
@@ -4297,7 +4398,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>154</v>
       </c>
@@ -4308,7 +4409,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>154</v>
       </c>
@@ -4319,7 +4420,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>154</v>
       </c>
@@ -4330,7 +4431,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>160</v>
       </c>
@@ -4341,7 +4442,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -4352,7 +4453,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -4363,7 +4464,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -4374,7 +4475,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -4385,7 +4486,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -4396,7 +4497,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>42</v>
       </c>
@@ -4407,7 +4508,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -4418,7 +4519,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>42</v>
       </c>
@@ -4429,7 +4530,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>42</v>
       </c>
@@ -4440,7 +4541,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>42</v>
       </c>
@@ -4451,7 +4552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>53</v>
       </c>
@@ -4462,7 +4563,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>53</v>
       </c>
@@ -4473,7 +4574,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>53</v>
       </c>
@@ -4484,7 +4585,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>53</v>
       </c>
@@ -4495,7 +4596,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>53</v>
       </c>
@@ -4506,7 +4607,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>53</v>
       </c>
@@ -4517,7 +4618,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>53</v>
       </c>
@@ -4528,7 +4629,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>53</v>
       </c>
@@ -4539,7 +4640,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>53</v>
       </c>
@@ -4550,7 +4651,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>53</v>
       </c>
@@ -4561,7 +4662,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>66</v>
       </c>
@@ -4572,7 +4673,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>66</v>
       </c>
@@ -4583,7 +4684,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>182</v>
       </c>
@@ -4594,7 +4695,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>182</v>
       </c>
@@ -4605,7 +4706,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>182</v>
       </c>
@@ -4616,7 +4717,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>182</v>
       </c>
@@ -4627,7 +4728,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>182</v>
       </c>
@@ -4638,7 +4739,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>182</v>
       </c>
@@ -4649,7 +4750,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>182</v>
       </c>
@@ -4660,7 +4761,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>182</v>
       </c>
@@ -4671,7 +4772,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>182</v>
       </c>
@@ -4682,7 +4783,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>182</v>
       </c>
@@ -4693,7 +4794,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>191</v>
       </c>
@@ -4704,7 +4805,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>191</v>
       </c>
@@ -4715,7 +4816,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>191</v>
       </c>
@@ -4726,7 +4827,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>191</v>
       </c>
@@ -4737,7 +4838,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>191</v>
       </c>
@@ -4748,7 +4849,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>191</v>
       </c>
@@ -4759,7 +4860,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>191</v>
       </c>
@@ -4770,7 +4871,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>191</v>
       </c>
@@ -4781,7 +4882,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>191</v>
       </c>
@@ -4792,7 +4893,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>191</v>
       </c>
@@ -4803,7 +4904,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>191</v>
       </c>
@@ -4814,7 +4915,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>201</v>
       </c>
@@ -4825,7 +4926,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>201</v>
       </c>
@@ -4836,7 +4937,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>201</v>
       </c>
@@ -4847,7 +4948,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>201</v>
       </c>
@@ -4858,7 +4959,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>201</v>
       </c>
@@ -4869,7 +4970,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>201</v>
       </c>
@@ -4880,7 +4981,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>201</v>
       </c>
@@ -4891,7 +4992,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>201</v>
       </c>
@@ -4902,7 +5003,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>201</v>
       </c>
@@ -4913,7 +5014,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>201</v>
       </c>
@@ -4924,7 +5025,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>201</v>
       </c>
@@ -4935,7 +5036,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>201</v>
       </c>
@@ -4946,7 +5047,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>201</v>
       </c>
@@ -4957,7 +5058,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>210</v>
       </c>
@@ -4968,7 +5069,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>210</v>
       </c>
@@ -4979,7 +5080,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>210</v>
       </c>
@@ -4990,7 +5091,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>210</v>
       </c>
@@ -5001,7 +5102,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>210</v>
       </c>
@@ -5012,7 +5113,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>215</v>
       </c>
@@ -5023,7 +5124,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>215</v>
       </c>
@@ -5034,7 +5135,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>215</v>
       </c>
@@ -5045,7 +5146,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>215</v>
       </c>
@@ -5056,7 +5157,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>215</v>
       </c>
@@ -5067,7 +5168,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>215</v>
       </c>
@@ -5078,7 +5179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>215</v>
       </c>
@@ -5089,7 +5190,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>215</v>
       </c>
@@ -5100,7 +5201,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>215</v>
       </c>
@@ -5111,7 +5212,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>215</v>
       </c>
@@ -5132,18 +5233,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.84765625" customWidth="1"/>
+    <col min="2" max="2" width="26.6484375" customWidth="1"/>
+    <col min="3" max="4" width="29.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -5157,7 +5258,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -5169,7 +5270,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>241</v>
       </c>
@@ -5179,7 +5280,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>241</v>
       </c>
@@ -5189,7 +5290,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>241</v>
       </c>
@@ -5199,7 +5300,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>241</v>
       </c>
@@ -5213,7 +5314,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>241</v>
       </c>
@@ -5227,7 +5328,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>241</v>
       </c>
@@ -5239,7 +5340,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>241</v>
       </c>
@@ -5253,7 +5354,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>241</v>
       </c>
@@ -5265,7 +5366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>241</v>
       </c>
@@ -5277,7 +5378,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>241</v>
       </c>
@@ -5289,7 +5390,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>241</v>
       </c>
@@ -5303,7 +5404,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -5315,7 +5416,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>241</v>
       </c>
@@ -5329,7 +5430,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>241</v>
       </c>
@@ -5339,7 +5440,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>241</v>
       </c>
@@ -5349,7 +5450,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>241</v>
       </c>
@@ -5361,7 +5462,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>241</v>
       </c>
@@ -5373,7 +5474,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>241</v>
       </c>
@@ -5385,7 +5486,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>241</v>
       </c>
@@ -5399,7 +5500,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>241</v>
       </c>
@@ -5413,7 +5514,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>241</v>
       </c>
@@ -5425,7 +5526,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
@@ -5435,7 +5536,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>241</v>
       </c>
@@ -5445,7 +5546,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>241</v>
       </c>
@@ -5459,7 +5560,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>241</v>
       </c>
@@ -5471,7 +5572,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>241</v>
       </c>
@@ -5481,7 +5582,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>241</v>
       </c>
@@ -5493,7 +5594,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>241</v>
       </c>
@@ -5503,7 +5604,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>241</v>
       </c>
@@ -5513,7 +5614,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>241</v>
       </c>
@@ -5523,7 +5624,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>241</v>
       </c>
@@ -5537,7 +5638,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>241</v>
       </c>
@@ -5551,7 +5652,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>241</v>
       </c>
@@ -5565,7 +5666,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>241</v>
       </c>
@@ -5579,7 +5680,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>241</v>
       </c>
@@ -5589,7 +5690,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>241</v>
       </c>
@@ -5599,7 +5700,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>241</v>
       </c>
@@ -5611,7 +5712,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>241</v>
       </c>
@@ -5621,7 +5722,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>241</v>
       </c>
@@ -5631,7 +5732,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>241</v>
       </c>
@@ -5645,7 +5746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>241</v>
       </c>
@@ -5655,7 +5756,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>241</v>
       </c>
@@ -5665,7 +5766,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>241</v>
       </c>
@@ -5675,7 +5776,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>241</v>
       </c>
@@ -5685,7 +5786,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>241</v>
       </c>
@@ -5697,7 +5798,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>241</v>
       </c>
@@ -5707,7 +5808,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>241</v>
       </c>
@@ -5721,7 +5822,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>241</v>
       </c>
@@ -5735,7 +5836,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>241</v>
       </c>
@@ -5747,7 +5848,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>241</v>
       </c>
@@ -5757,7 +5858,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>241</v>
       </c>
@@ -5771,7 +5872,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>241</v>
       </c>
@@ -5781,7 +5882,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>241</v>
       </c>
@@ -5793,7 +5894,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>241</v>
       </c>
@@ -5803,7 +5904,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>241</v>
       </c>
@@ -5813,7 +5914,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>241</v>
       </c>
@@ -5823,7 +5924,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>241</v>
       </c>
@@ -5833,7 +5934,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>241</v>
       </c>
@@ -5843,7 +5944,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>241</v>
       </c>
@@ -5853,7 +5954,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>241</v>
       </c>
@@ -5865,7 +5966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>241</v>
       </c>
@@ -5879,7 +5980,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>241</v>
       </c>
@@ -5891,7 +5992,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>241</v>
       </c>
@@ -5905,7 +6006,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>241</v>
       </c>
@@ -5917,7 +6018,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>241</v>
       </c>
@@ -5929,7 +6030,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>241</v>
       </c>
@@ -5941,7 +6042,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>346</v>
       </c>
@@ -5953,7 +6054,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>346</v>
       </c>
@@ -5967,7 +6068,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>346</v>
       </c>
@@ -5981,7 +6082,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>346</v>
       </c>
@@ -5995,7 +6096,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>346</v>
       </c>
@@ -6009,7 +6110,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>346</v>
       </c>
@@ -6023,7 +6124,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>346</v>
       </c>
@@ -6035,7 +6136,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>346</v>
       </c>
@@ -6049,7 +6150,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>346</v>
       </c>
@@ -6063,7 +6164,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>346</v>
       </c>
@@ -6077,7 +6178,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>346</v>
       </c>
@@ -6091,7 +6192,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>348</v>
       </c>
@@ -6105,7 +6206,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>348</v>
       </c>
@@ -6119,7 +6220,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>348</v>
       </c>
@@ -6133,7 +6234,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>348</v>
       </c>
@@ -6147,7 +6248,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>348</v>
       </c>
@@ -6161,7 +6262,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>348</v>
       </c>
@@ -6175,7 +6276,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>348</v>
       </c>
@@ -6189,7 +6290,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>348</v>
       </c>
@@ -6203,7 +6304,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>348</v>
       </c>
@@ -6217,7 +6318,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>348</v>
       </c>
@@ -6231,7 +6332,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>348</v>
       </c>
@@ -6245,7 +6346,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>347</v>
       </c>
@@ -6259,7 +6360,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>347</v>
       </c>
@@ -6273,7 +6374,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>347</v>
       </c>
@@ -6285,7 +6386,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>347</v>
       </c>
@@ -6299,7 +6400,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>347</v>
       </c>
@@ -6313,7 +6414,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>347</v>
       </c>
@@ -6327,7 +6428,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>347</v>
       </c>
@@ -6341,7 +6442,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>347</v>
       </c>
@@ -6355,7 +6456,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
@@ -6369,7 +6470,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>347</v>
       </c>
@@ -6383,7 +6484,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="19.8">
       <c r="A101" t="s">
         <v>83</v>
       </c>
@@ -6398,7 +6499,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -6410,7 +6511,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -6424,7 +6525,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -6438,7 +6539,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -6446,7 +6547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -6460,7 +6561,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -6474,7 +6575,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -6488,7 +6589,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -6496,7 +6597,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -6510,7 +6611,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -6522,7 +6623,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -6536,7 +6637,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -6550,7 +6651,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -6564,7 +6665,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>84</v>
       </c>
@@ -6575,7 +6676,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>84</v>
       </c>
@@ -6589,7 +6690,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>84</v>
       </c>
@@ -6603,7 +6704,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>84</v>
       </c>
@@ -6617,7 +6718,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -6631,7 +6732,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>84</v>
       </c>
@@ -6645,7 +6746,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>84</v>
       </c>
@@ -6653,7 +6754,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>84</v>
       </c>
@@ -6667,7 +6768,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>84</v>
       </c>
@@ -6681,7 +6782,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -6695,7 +6796,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -6709,7 +6810,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>219</v>
       </c>
@@ -6723,7 +6824,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>219</v>
       </c>
@@ -6737,7 +6838,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -6751,7 +6852,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -6765,7 +6866,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -6779,7 +6880,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -6793,7 +6894,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>219</v>
       </c>
@@ -6801,7 +6902,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -6809,7 +6910,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>219</v>
       </c>
@@ -6817,7 +6918,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>219</v>
       </c>
@@ -6825,115 +6926,115 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6941,13 +7042,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C6 C16:C114 C117:C1048576 C8:C14">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C6 C8:C114 C116:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6957,18 +7058,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC000907-A5EB-4341-B642-9AE1FF7CC400}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.84765625" customWidth="1"/>
+    <col min="2" max="2" width="26.6484375" customWidth="1"/>
+    <col min="3" max="4" width="29.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -6982,7 +7083,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>348</v>
       </c>
@@ -6996,7 +7097,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>348</v>
       </c>
@@ -7008,7 +7109,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>348</v>
       </c>
@@ -7020,7 +7121,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>348</v>
       </c>
@@ -7034,7 +7135,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>348</v>
       </c>
@@ -7048,7 +7149,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>348</v>
       </c>
@@ -7062,7 +7163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>348</v>
       </c>
@@ -7074,7 +7175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>348</v>
       </c>
@@ -7088,7 +7189,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>348</v>
       </c>
@@ -7100,7 +7201,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>348</v>
       </c>
@@ -7112,7 +7213,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>348</v>
       </c>
@@ -7126,7 +7227,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>347</v>
       </c>
@@ -7140,7 +7241,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>347</v>
       </c>
@@ -7152,7 +7253,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>347</v>
       </c>
@@ -7164,7 +7265,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>347</v>
       </c>
@@ -7178,7 +7279,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>347</v>
       </c>
@@ -7190,7 +7291,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>347</v>
       </c>
@@ -7202,7 +7303,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>347</v>
       </c>
@@ -7216,7 +7317,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>347</v>
       </c>
@@ -7230,7 +7331,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>347</v>
       </c>
@@ -7244,7 +7345,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>347</v>
       </c>
@@ -7258,115 +7359,115 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7374,16 +7475,2093 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEA5E5E-5FE0-45FD-9320-36DC7B58FAF8}">
+  <dimension ref="A1:D135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="27.09765625" customWidth="1"/>
+    <col min="3" max="3" width="32.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C135">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BF2CF-DA21-40C8-A13D-6CAA1DD80B8E}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21267F1A-3001-4148-9909-E8C4D58FC8DD}">
   <dimension ref="A1:B92"/>
   <sheetViews>
@@ -7391,12 +9569,12 @@
       <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>351</v>
       </c>
@@ -7404,7 +9582,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -7412,7 +9590,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>355</v>
       </c>
@@ -7420,7 +9598,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>356</v>
       </c>
@@ -7428,7 +9606,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -7436,7 +9614,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>358</v>
       </c>
@@ -7444,7 +9622,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>359</v>
       </c>
@@ -7452,7 +9630,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>360</v>
       </c>
@@ -7460,7 +9638,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>361</v>
       </c>
@@ -7468,7 +9646,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -7476,7 +9654,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -7484,7 +9662,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -7492,7 +9670,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>367</v>
       </c>
@@ -7500,7 +9678,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>369</v>
       </c>
@@ -7508,7 +9686,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>370</v>
       </c>
@@ -7516,7 +9694,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -7524,7 +9702,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>373</v>
       </c>
@@ -7532,7 +9710,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>374</v>
       </c>
@@ -7540,7 +9718,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>375</v>
       </c>
@@ -7548,7 +9726,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>376</v>
       </c>
@@ -7556,7 +9734,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>377</v>
       </c>
@@ -7564,7 +9742,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>378</v>
       </c>
@@ -7572,7 +9750,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -7580,7 +9758,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>380</v>
       </c>
@@ -7588,7 +9766,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>381</v>
       </c>
@@ -7596,7 +9774,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -7604,7 +9782,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>383</v>
       </c>
@@ -7612,7 +9790,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -7620,7 +9798,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>385</v>
       </c>
@@ -7628,7 +9806,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -7636,7 +9814,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>387</v>
       </c>
@@ -7644,7 +9822,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>388</v>
       </c>
@@ -7652,7 +9830,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>389</v>
       </c>
@@ -7660,7 +9838,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -7668,7 +9846,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>391</v>
       </c>
@@ -7676,7 +9854,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -7684,7 +9862,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>393</v>
       </c>
@@ -7692,7 +9870,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>394</v>
       </c>
@@ -7700,7 +9878,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -7708,7 +9886,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>396</v>
       </c>
@@ -7716,7 +9894,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>397</v>
       </c>
@@ -7724,7 +9902,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>398</v>
       </c>
@@ -7732,7 +9910,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>399</v>
       </c>
@@ -7740,7 +9918,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>401</v>
       </c>
@@ -7748,7 +9926,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>402</v>
       </c>
@@ -7756,7 +9934,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>404</v>
       </c>
@@ -7764,7 +9942,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>405</v>
       </c>
@@ -7772,7 +9950,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>406</v>
       </c>
@@ -7780,7 +9958,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>407</v>
       </c>
@@ -7788,7 +9966,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>409</v>
       </c>
@@ -7796,7 +9974,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>410</v>
       </c>
@@ -7804,7 +9982,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>411</v>
       </c>
@@ -7812,7 +9990,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>412</v>
       </c>
@@ -7820,7 +9998,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>413</v>
       </c>
@@ -7828,7 +10006,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>415</v>
       </c>
@@ -7836,7 +10014,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>416</v>
       </c>
@@ -7844,7 +10022,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -7852,7 +10030,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>418</v>
       </c>
@@ -7860,7 +10038,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>419</v>
       </c>
@@ -7868,7 +10046,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>420</v>
       </c>
@@ -7876,7 +10054,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -7884,7 +10062,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>423</v>
       </c>
@@ -7892,7 +10070,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -7900,7 +10078,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>425</v>
       </c>
@@ -7908,7 +10086,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>426</v>
       </c>
@@ -7916,7 +10094,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>427</v>
       </c>
@@ -7924,7 +10102,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>428</v>
       </c>
@@ -7932,7 +10110,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>429</v>
       </c>
@@ -7940,7 +10118,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -7948,7 +10126,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>431</v>
       </c>
@@ -7956,7 +10134,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>432</v>
       </c>
@@ -7964,7 +10142,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>433</v>
       </c>
@@ -7972,7 +10150,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>434</v>
       </c>
@@ -7980,7 +10158,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>435</v>
       </c>
@@ -7988,7 +10166,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>436</v>
       </c>
@@ -7996,7 +10174,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -8004,7 +10182,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>438</v>
       </c>
@@ -8012,7 +10190,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>439</v>
       </c>
@@ -8020,7 +10198,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>440</v>
       </c>
@@ -8028,7 +10206,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>441</v>
       </c>
@@ -8036,7 +10214,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>442</v>
       </c>
@@ -8044,7 +10222,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>443</v>
       </c>
@@ -8052,7 +10230,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>444</v>
       </c>
@@ -8060,7 +10238,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>445</v>
       </c>
@@ -8068,7 +10246,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>446</v>
       </c>
@@ -8076,7 +10254,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>447</v>
       </c>
@@ -8084,7 +10262,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>448</v>
       </c>
@@ -8092,7 +10270,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>449</v>
       </c>
@@ -8100,7 +10278,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>450</v>
       </c>
@@ -8108,7 +10286,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>451</v>
       </c>
@@ -8116,7 +10294,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>452</v>
       </c>
@@ -8124,7 +10302,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>453</v>
       </c>

--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmam\Documents\Github\Decosus\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCEF33B-CA74-4D75-87CF-F43500037311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BFA2CD-AC5A-41C7-A782-1ACFF3F6B478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="11112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="11112" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,16 @@
     <sheet name="Map_2" sheetId="4" r:id="rId3"/>
     <sheet name="Map_1b" sheetId="5" r:id="rId4"/>
     <sheet name="Map_2b" sheetId="6" r:id="rId5"/>
-    <sheet name="Colour" sheetId="3" r:id="rId6"/>
+    <sheet name="Map_1c" sheetId="7" r:id="rId6"/>
+    <sheet name="Map_2c" sheetId="8" r:id="rId7"/>
+    <sheet name="Colour" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Map_1!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Map_1b!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Map_1c!$A$1:$D$135</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="477">
   <si>
     <t>Type</t>
   </si>
@@ -2030,7 +2037,67 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5233,8 +5300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -7041,14 +7108,15 @@
       <c r="D154" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D135" xr:uid="{48D8CAE7-6202-46D0-892E-92FC19BD528C}"/>
   <conditionalFormatting sqref="C1:C6 C16:C114 C117:C1048576 C8:C14">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C6 C8:C114 C116:C1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7059,7 +7127,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -7475,10 +7543,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7489,7 +7557,7 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -9211,6 +9279,2060 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D135" xr:uid="{51922E67-EB95-4B1F-A51D-DEB1578F7C79}"/>
+  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C135">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BF2CF-DA21-40C8-A13D-6CAA1DD80B8E}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E28C3-8EDA-4BC2-9A6D-B138F40C2B34}">
+  <dimension ref="A1:D135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection sqref="A1:D135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="25.94921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D135" xr:uid="{FAA147C1-9686-4E8F-900B-0BDD3A167A87}"/>
   <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
@@ -9224,19 +11346,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BF2CF-DA21-40C8-A13D-6CAA1DD80B8E}">
-  <dimension ref="A1:D22"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA63883C-0CE9-49EE-B752-C990EEB29162}">
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="24.94921875" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9547,21 +11669,138 @@
         <v>336</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="C39:C57 C1:C36">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C22">
+  <conditionalFormatting sqref="C38:C57 C1:C36">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="C1:C57">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21267F1A-3001-4148-9909-E8C4D58FC8DD}">
   <dimension ref="A1:B92"/>
   <sheetViews>

--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmam\Documents\Github\Decosus\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/Documents/GitHub/Decosus/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BFA2CD-AC5A-41C7-A782-1ACFF3F6B478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1DDA83-A236-4C4B-A55F-90D329127875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="11112" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="17480" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
     <sheet name="Map_1" sheetId="2" r:id="rId2"/>
     <sheet name="Map_2" sheetId="4" r:id="rId3"/>
     <sheet name="Map_1b" sheetId="5" r:id="rId4"/>
-    <sheet name="Map_2b" sheetId="6" r:id="rId5"/>
-    <sheet name="Map_1c" sheetId="7" r:id="rId6"/>
+    <sheet name="Map_1c" sheetId="7" r:id="rId5"/>
+    <sheet name="Map_2b" sheetId="6" r:id="rId6"/>
     <sheet name="Map_2c" sheetId="8" r:id="rId7"/>
     <sheet name="Colour" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Map_1!$A$1:$D$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Map_1b!$A$1:$D$135</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Map_1c!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Map_1c!$A$1:$D$135</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1479,7 +1479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2524,12 +2524,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6484375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>66</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>42</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>42</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>42</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>147</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>147</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>147</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>147</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>102</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>102</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>102</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>102</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>102</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>102</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>102</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>102</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>102</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>102</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>154</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>154</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>154</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>154</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>154</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>154</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>154</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>160</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>42</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>42</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>42</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>42</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>42</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>53</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>53</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>53</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>53</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>53</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>53</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>53</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>53</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>53</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>53</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>66</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>66</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>182</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>182</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>182</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>182</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>182</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>182</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>182</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>182</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>182</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>182</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>191</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>191</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>191</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>191</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>191</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>191</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>191</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>191</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>191</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>191</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>191</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>201</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>201</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>201</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>201</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>201</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>201</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>201</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>201</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>201</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>201</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>201</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>201</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>201</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>210</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>210</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>210</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>210</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>210</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>215</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>215</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>215</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>215</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>215</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>215</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>215</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>215</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>215</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>215</v>
       </c>
@@ -5300,18 +5300,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123:C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.84765625" customWidth="1"/>
-    <col min="2" max="2" width="26.6484375" customWidth="1"/>
-    <col min="3" max="4" width="29.84765625" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="4" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>241</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>241</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>241</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>241</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>241</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>241</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>241</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>241</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>241</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>241</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>241</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>241</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>241</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>241</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>241</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>241</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>241</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>241</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>241</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>241</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>241</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>241</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>241</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>241</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>241</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>241</v>
       </c>
@@ -5671,7 +5671,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>241</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>241</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>241</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>241</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>241</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>241</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>241</v>
       </c>
@@ -5757,7 +5757,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>241</v>
       </c>
@@ -5767,7 +5767,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>241</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>241</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>241</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>241</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>241</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>241</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>241</v>
       </c>
@@ -5843,7 +5843,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>241</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>241</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>241</v>
       </c>
@@ -5875,7 +5875,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>241</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>241</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>241</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>241</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>241</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>241</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>241</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>241</v>
       </c>
@@ -5971,7 +5971,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>241</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>241</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>241</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>241</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>241</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>241</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>241</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>241</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>241</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>241</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>241</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>241</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>346</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>346</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>346</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>346</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>346</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>346</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>346</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>346</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>346</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>346</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>346</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>348</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>348</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>348</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>348</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>348</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>348</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>348</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>348</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>348</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>348</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>348</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>347</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>347</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>347</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>347</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>347</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>347</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>347</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>347</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>347</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="19.8">
+    <row r="101" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>83</v>
       </c>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>84</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>84</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>84</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>84</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>84</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>84</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>84</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>84</v>
       </c>
@@ -6843,13 +6843,13 @@
         <v>140</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -6857,13 +6857,13 @@
         <v>147</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>219</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>219</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>219</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>219</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>219</v>
       </c>
@@ -6993,115 +6993,115 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -7130,14 +7130,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.84765625" customWidth="1"/>
-    <col min="2" max="2" width="26.6484375" customWidth="1"/>
-    <col min="3" max="4" width="29.84765625" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="4" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>348</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>348</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>348</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>348</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>348</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>348</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>348</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>348</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>348</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>348</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>348</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>347</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>347</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>347</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>347</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>347</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>347</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>347</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>347</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>347</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>347</v>
       </c>
@@ -7427,115 +7427,115 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7556,18 +7556,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEA5E5E-5FE0-45FD-9320-36DC7B58FAF8}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="27.09765625" customWidth="1"/>
-    <col min="3" max="3" width="32.09765625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>241</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>241</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>241</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>241</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>241</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>241</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>241</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>241</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>241</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>241</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>241</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>241</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>241</v>
       </c>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>241</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>241</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>241</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>241</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>241</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>241</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>241</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
@@ -7875,7 +7875,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>241</v>
       </c>
@@ -7885,7 +7885,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>241</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>241</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>241</v>
       </c>
@@ -7921,7 +7921,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>241</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>241</v>
       </c>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>241</v>
       </c>
@@ -7955,7 +7955,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>241</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>241</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>241</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>241</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>241</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>241</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>241</v>
       </c>
@@ -8041,7 +8041,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>241</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>241</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>241</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>241</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>241</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>241</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>241</v>
       </c>
@@ -8119,7 +8119,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>241</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>241</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>241</v>
       </c>
@@ -8153,7 +8153,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>241</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>241</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>241</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>241</v>
       </c>
@@ -8203,7 +8203,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>241</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>241</v>
       </c>
@@ -8227,7 +8227,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>241</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>241</v>
       </c>
@@ -8249,7 +8249,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>241</v>
       </c>
@@ -8259,7 +8259,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>241</v>
       </c>
@@ -8269,7 +8269,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>241</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>241</v>
       </c>
@@ -8289,7 +8289,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>241</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>241</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>241</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>241</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>241</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>241</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>241</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>241</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>346</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>346</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>346</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>346</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>346</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>346</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>346</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>346</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>346</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>346</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>346</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>348</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>348</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>348</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>348</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>348</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>348</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>348</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>348</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>348</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>348</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>348</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>347</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>347</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>347</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>347</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>347</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>347</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>347</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>347</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>347</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>83</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>84</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>84</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>84</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>84</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>84</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>84</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>84</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>84</v>
       </c>
@@ -9128,13 +9128,13 @@
         <v>140</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -9142,13 +9142,13 @@
         <v>147</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>219</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>219</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>219</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>219</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>219</v>
       </c>
@@ -9294,357 +9294,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BF2CF-DA21-40C8-A13D-6CAA1DD80B8E}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E28C3-8EDA-4BC2-9A6D-B138F40C2B34}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection sqref="A1:D135"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="25.94921875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -9658,7 +9321,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -9670,7 +9333,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>241</v>
       </c>
@@ -9680,7 +9343,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>241</v>
       </c>
@@ -9690,7 +9353,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>241</v>
       </c>
@@ -9700,7 +9363,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>241</v>
       </c>
@@ -9714,7 +9377,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>241</v>
       </c>
@@ -9728,7 +9391,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>241</v>
       </c>
@@ -9740,7 +9403,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>241</v>
       </c>
@@ -9754,7 +9417,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>241</v>
       </c>
@@ -9766,7 +9429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>241</v>
       </c>
@@ -9778,7 +9441,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>241</v>
       </c>
@@ -9790,7 +9453,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>241</v>
       </c>
@@ -9804,7 +9467,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>241</v>
       </c>
@@ -9816,7 +9479,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>241</v>
       </c>
@@ -9830,7 +9493,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>241</v>
       </c>
@@ -9840,7 +9503,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>241</v>
       </c>
@@ -9850,7 +9513,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>241</v>
       </c>
@@ -9864,7 +9527,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>241</v>
       </c>
@@ -9876,7 +9539,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>241</v>
       </c>
@@ -9888,7 +9551,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>241</v>
       </c>
@@ -9902,7 +9565,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>241</v>
       </c>
@@ -9916,7 +9579,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>241</v>
       </c>
@@ -9928,7 +9591,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
@@ -9938,7 +9601,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>241</v>
       </c>
@@ -9948,7 +9611,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>241</v>
       </c>
@@ -9962,7 +9625,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>241</v>
       </c>
@@ -9974,7 +9637,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>241</v>
       </c>
@@ -9984,7 +9647,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>241</v>
       </c>
@@ -9996,7 +9659,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>241</v>
       </c>
@@ -10006,7 +9669,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>241</v>
       </c>
@@ -10016,7 +9679,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>241</v>
       </c>
@@ -10026,7 +9689,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>241</v>
       </c>
@@ -10040,7 +9703,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>241</v>
       </c>
@@ -10054,7 +9717,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>241</v>
       </c>
@@ -10068,7 +9731,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>241</v>
       </c>
@@ -10082,7 +9745,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>241</v>
       </c>
@@ -10092,7 +9755,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>241</v>
       </c>
@@ -10102,7 +9765,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>241</v>
       </c>
@@ -10116,7 +9779,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>241</v>
       </c>
@@ -10126,7 +9789,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>241</v>
       </c>
@@ -10136,7 +9799,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>241</v>
       </c>
@@ -10150,7 +9813,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>241</v>
       </c>
@@ -10160,7 +9823,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>241</v>
       </c>
@@ -10170,7 +9833,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>241</v>
       </c>
@@ -10180,7 +9843,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>241</v>
       </c>
@@ -10190,7 +9853,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>241</v>
       </c>
@@ -10202,7 +9865,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>241</v>
       </c>
@@ -10212,7 +9875,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>241</v>
       </c>
@@ -10226,7 +9889,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>241</v>
       </c>
@@ -10240,7 +9903,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>241</v>
       </c>
@@ -10252,7 +9915,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>241</v>
       </c>
@@ -10262,7 +9925,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>241</v>
       </c>
@@ -10276,7 +9939,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>241</v>
       </c>
@@ -10286,7 +9949,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>241</v>
       </c>
@@ -10298,7 +9961,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>241</v>
       </c>
@@ -10308,7 +9971,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>241</v>
       </c>
@@ -10318,7 +9981,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>241</v>
       </c>
@@ -10328,7 +9991,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>241</v>
       </c>
@@ -10338,7 +10001,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>241</v>
       </c>
@@ -10348,7 +10011,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>241</v>
       </c>
@@ -10358,7 +10021,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>241</v>
       </c>
@@ -10370,7 +10033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>241</v>
       </c>
@@ -10384,7 +10047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>241</v>
       </c>
@@ -10396,7 +10059,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>241</v>
       </c>
@@ -10410,7 +10073,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>241</v>
       </c>
@@ -10422,7 +10085,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>241</v>
       </c>
@@ -10434,7 +10097,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>241</v>
       </c>
@@ -10446,7 +10109,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>346</v>
       </c>
@@ -10458,7 +10121,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>346</v>
       </c>
@@ -10472,7 +10135,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>346</v>
       </c>
@@ -10486,7 +10149,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>346</v>
       </c>
@@ -10500,7 +10163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>346</v>
       </c>
@@ -10514,7 +10177,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>346</v>
       </c>
@@ -10528,7 +10191,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>346</v>
       </c>
@@ -10540,7 +10203,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>346</v>
       </c>
@@ -10554,7 +10217,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>346</v>
       </c>
@@ -10568,7 +10231,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>346</v>
       </c>
@@ -10582,7 +10245,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>346</v>
       </c>
@@ -10596,7 +10259,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>348</v>
       </c>
@@ -10610,7 +10273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>348</v>
       </c>
@@ -10624,7 +10287,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>348</v>
       </c>
@@ -10638,7 +10301,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>348</v>
       </c>
@@ -10652,7 +10315,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>348</v>
       </c>
@@ -10666,7 +10329,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>348</v>
       </c>
@@ -10680,7 +10343,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>348</v>
       </c>
@@ -10694,7 +10357,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>348</v>
       </c>
@@ -10708,7 +10371,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>348</v>
       </c>
@@ -10722,7 +10385,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>348</v>
       </c>
@@ -10736,7 +10399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>348</v>
       </c>
@@ -10750,7 +10413,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>347</v>
       </c>
@@ -10764,7 +10427,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>347</v>
       </c>
@@ -10778,7 +10441,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>347</v>
       </c>
@@ -10792,7 +10455,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>347</v>
       </c>
@@ -10806,7 +10469,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>347</v>
       </c>
@@ -10820,7 +10483,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>347</v>
       </c>
@@ -10834,7 +10497,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>347</v>
       </c>
@@ -10848,7 +10511,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>347</v>
       </c>
@@ -10862,7 +10525,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>347</v>
       </c>
@@ -10876,7 +10539,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>347</v>
       </c>
@@ -10890,7 +10553,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>83</v>
       </c>
@@ -10904,7 +10567,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -10916,7 +10579,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -10930,7 +10593,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -10944,7 +10607,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -10953,7 +10616,7 @@
       </c>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -10967,7 +10630,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -10981,7 +10644,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -10995,7 +10658,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -11004,7 +10667,7 @@
       </c>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -11018,7 +10681,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -11030,7 +10693,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -11044,7 +10707,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -11058,7 +10721,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -11072,7 +10735,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>84</v>
       </c>
@@ -11081,7 +10744,7 @@
       </c>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>84</v>
       </c>
@@ -11095,7 +10758,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>84</v>
       </c>
@@ -11109,7 +10772,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>84</v>
       </c>
@@ -11123,7 +10786,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -11137,7 +10800,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>84</v>
       </c>
@@ -11151,7 +10814,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>84</v>
       </c>
@@ -11159,7 +10822,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>84</v>
       </c>
@@ -11173,7 +10836,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>84</v>
       </c>
@@ -11184,10 +10847,10 @@
         <v>473</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -11198,10 +10861,10 @@
         <v>472</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -11215,7 +10878,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>219</v>
       </c>
@@ -11229,7 +10892,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>219</v>
       </c>
@@ -11243,7 +10906,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -11257,7 +10920,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -11271,7 +10934,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -11285,7 +10948,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -11299,7 +10962,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>219</v>
       </c>
@@ -11307,7 +10970,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -11315,7 +10978,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>219</v>
       </c>
@@ -11323,7 +10986,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>219</v>
       </c>
@@ -11346,22 +11009,359 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BF2CF-DA21-40C8-A13D-6CAA1DD80B8E}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C22">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA63883C-0CE9-49EE-B752-C990EEB29162}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="24.94921875" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>344</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>348</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>348</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>348</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>348</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>348</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>348</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>348</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>348</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>348</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>348</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>348</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>347</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>347</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>347</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>347</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>347</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>347</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>347</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>347</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>347</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>347</v>
       </c>
@@ -11669,120 +11669,120 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="3:4">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
@@ -11808,12 +11808,12 @@
       <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.84765625" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>351</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>355</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>356</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>358</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>359</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>360</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>361</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>367</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>369</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>370</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>373</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>374</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>375</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>376</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>377</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>378</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>380</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>381</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>383</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>385</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>387</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>388</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>389</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>391</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>393</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>394</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>396</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>397</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>398</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>399</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>401</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>402</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>404</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>405</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>406</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>407</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>409</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>410</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>411</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>412</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>413</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>415</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>416</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>418</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>419</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>420</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>423</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>425</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>426</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>427</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>428</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>429</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>431</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>432</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>433</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>434</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>435</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>436</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>437</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>438</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>439</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>440</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>441</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>442</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>443</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>444</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>445</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>446</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>447</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>448</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>449</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>450</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>451</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>452</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>453</v>
       </c>

--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/Documents/GitHub/Decosus/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1DDA83-A236-4C4B-A55F-90D329127875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A9B5B-D59F-A943-8839-D8097EACC1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="17480" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
     <sheet name="Map_1" sheetId="2" r:id="rId2"/>
-    <sheet name="Map_2" sheetId="4" r:id="rId3"/>
-    <sheet name="Map_1b" sheetId="5" r:id="rId4"/>
-    <sheet name="Map_1c" sheetId="7" r:id="rId5"/>
+    <sheet name="Map_1b" sheetId="5" r:id="rId3"/>
+    <sheet name="Map_1c" sheetId="7" r:id="rId4"/>
+    <sheet name="Map_2" sheetId="4" r:id="rId5"/>
     <sheet name="Map_2b" sheetId="6" r:id="rId6"/>
     <sheet name="Map_2c" sheetId="8" r:id="rId7"/>
     <sheet name="Colour" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Map_1!$A$1:$D$135</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Map_1b!$A$1:$D$135</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Map_1c!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Map_1b!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Map_1c!$A$1:$D$135</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -7123,6 +7123,3463 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEA5E5E-5FE0-45FD-9320-36DC7B58FAF8}">
+  <dimension ref="A1:D135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D135" xr:uid="{51922E67-EB95-4B1F-A51D-DEB1578F7C79}"/>
+  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C135">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E28C3-8EDA-4BC2-9A6D-B138F40C2B34}">
+  <dimension ref="A1:D135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D135" xr:uid="{FAA147C1-9686-4E8F-900B-0BDD3A167A87}"/>
+  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C135">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC000907-A5EB-4341-B642-9AE1FF7CC400}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -7547,3463 +11004,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="4"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEA5E5E-5FE0-45FD-9320-36DC7B58FAF8}">
-  <dimension ref="A1:D135"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>83</v>
-      </c>
-      <c r="B105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" t="s">
-        <v>85</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>84</v>
-      </c>
-      <c r="B116" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>84</v>
-      </c>
-      <c r="B118" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>84</v>
-      </c>
-      <c r="B119" t="s">
-        <v>108</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>84</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>84</v>
-      </c>
-      <c r="B122" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" t="s">
-        <v>140</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>84</v>
-      </c>
-      <c r="B124" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" t="s">
-        <v>154</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>219</v>
-      </c>
-      <c r="B127" t="s">
-        <v>160</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" t="s">
-        <v>66</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>219</v>
-      </c>
-      <c r="B132" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>219</v>
-      </c>
-      <c r="B133" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>219</v>
-      </c>
-      <c r="B134" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D135" xr:uid="{51922E67-EB95-4B1F-A51D-DEB1578F7C79}"/>
-  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C135">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E28C3-8EDA-4BC2-9A6D-B138F40C2B34}">
-  <dimension ref="A1:D135"/>
-  <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>83</v>
-      </c>
-      <c r="B105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" t="s">
-        <v>85</v>
-      </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>84</v>
-      </c>
-      <c r="B116" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>84</v>
-      </c>
-      <c r="B118" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>84</v>
-      </c>
-      <c r="B119" t="s">
-        <v>108</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>84</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>84</v>
-      </c>
-      <c r="B122" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" t="s">
-        <v>140</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>84</v>
-      </c>
-      <c r="B124" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" t="s">
-        <v>154</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>219</v>
-      </c>
-      <c r="B127" t="s">
-        <v>160</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" t="s">
-        <v>66</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>219</v>
-      </c>
-      <c r="B132" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>219</v>
-      </c>
-      <c r="B133" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>219</v>
-      </c>
-      <c r="B134" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D135" xr:uid="{FAA147C1-9686-4E8F-900B-0BDD3A167A87}"/>
-  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C135">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11334,13 +11334,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/Documents/GitHub/Decosus/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A9B5B-D59F-A943-8839-D8097EACC1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D25600-8A93-FC48-A41A-CD7E32394D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="17480" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Map_2b" sheetId="6" r:id="rId6"/>
     <sheet name="Map_2c" sheetId="8" r:id="rId7"/>
     <sheet name="Colour" sheetId="3" r:id="rId8"/>
+    <sheet name="Immune" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Map_1!$A$1:$D$135</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="479">
   <si>
     <t>Type</t>
   </si>
@@ -1473,6 +1474,12 @@
   </si>
   <si>
     <t>Uncharacterized cell</t>
+  </si>
+  <si>
+    <t>Immune</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2044,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5300,7 +5337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C123" sqref="C123:C124"/>
     </sheetView>
   </sheetViews>
@@ -7110,13 +7147,13 @@
   </sheetData>
   <autoFilter ref="A1:D135" xr:uid="{48D8CAE7-6202-46D0-892E-92FC19BD528C}"/>
   <conditionalFormatting sqref="C1:C6 C16:C114 C117:C1048576 C8:C14">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C6 C8:C114 C116:C1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7126,8 +7163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEA5E5E-5FE0-45FD-9320-36DC7B58FAF8}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8851,13 +8888,13 @@
   </sheetData>
   <autoFilter ref="A1:D135" xr:uid="{51922E67-EB95-4B1F-A51D-DEB1578F7C79}"/>
   <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C135">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8867,7 +8904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E28C3-8EDA-4BC2-9A6D-B138F40C2B34}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+    <sheetView topLeftCell="A107" workbookViewId="0">
       <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
@@ -10567,13 +10604,13 @@
   </sheetData>
   <autoFilter ref="A1:D135" xr:uid="{FAA147C1-9686-4E8F-900B-0BDD3A167A87}"/>
   <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C135">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11000,10 +11037,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11334,13 +11371,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11788,13 +11825,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C39:C57 C1:C36">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C57 C1:C36">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C57">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12555,4 +12592,2030 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4111054-FDA5-2847-AC24-6863644DC81C}">
+  <dimension ref="A1:E135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E64" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E69" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E71" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E83" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E86" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E89" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E97" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E98" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E99" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E106" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E107" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E110" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E111" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E112" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E113" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E114" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E115" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E116" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E117" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E118" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E119" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E120" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="E121" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E126" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E127" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E129" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E130" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E131" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>219</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="s">
+        <v>201</v>
+      </c>
+      <c r="E133" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>210</v>
+      </c>
+      <c r="E134" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" t="s">
+        <v>215</v>
+      </c>
+      <c r="E135" t="s">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C135">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/Documents/GitHub/Decosus/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D25600-8A93-FC48-A41A-CD7E32394D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF4802F-3E40-0541-A540-400F9ECB7783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="33520" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
     <sheet name="Map_1" sheetId="2" r:id="rId2"/>
-    <sheet name="Map_1b" sheetId="5" r:id="rId3"/>
-    <sheet name="Map_1c" sheetId="7" r:id="rId4"/>
-    <sheet name="Map_2" sheetId="4" r:id="rId5"/>
-    <sheet name="Map_2b" sheetId="6" r:id="rId6"/>
-    <sheet name="Map_2c" sheetId="8" r:id="rId7"/>
-    <sheet name="Colour" sheetId="3" r:id="rId8"/>
-    <sheet name="Immune" sheetId="9" r:id="rId9"/>
+    <sheet name="Map_2" sheetId="4" r:id="rId3"/>
+    <sheet name="Colour" sheetId="3" r:id="rId4"/>
+    <sheet name="Immune" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Map_1!$A$1:$D$135</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Map_1b!$A$1:$D$135</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Map_1c!$A$1:$D$135</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -43,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="479">
   <si>
     <t>Type</t>
   </si>
@@ -2044,127 +2038,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7147,3476 +7021,19 @@
   </sheetData>
   <autoFilter ref="A1:D135" xr:uid="{48D8CAE7-6202-46D0-892E-92FC19BD528C}"/>
   <conditionalFormatting sqref="C1:C6 C16:C114 C117:C1048576 C8:C14">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C6 C8:C114 C116:C1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEA5E5E-5FE0-45FD-9320-36DC7B58FAF8}">
-  <dimension ref="A1:D135"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>83</v>
-      </c>
-      <c r="B105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" t="s">
-        <v>85</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>84</v>
-      </c>
-      <c r="B116" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>84</v>
-      </c>
-      <c r="B118" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>84</v>
-      </c>
-      <c r="B119" t="s">
-        <v>108</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>84</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>84</v>
-      </c>
-      <c r="B122" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" t="s">
-        <v>140</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>84</v>
-      </c>
-      <c r="B124" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" t="s">
-        <v>154</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>219</v>
-      </c>
-      <c r="B127" t="s">
-        <v>160</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" t="s">
-        <v>66</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>219</v>
-      </c>
-      <c r="B132" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>219</v>
-      </c>
-      <c r="B133" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>219</v>
-      </c>
-      <c r="B134" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D135" xr:uid="{51922E67-EB95-4B1F-A51D-DEB1578F7C79}"/>
-  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C135">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E28C3-8EDA-4BC2-9A6D-B138F40C2B34}">
-  <dimension ref="A1:D135"/>
-  <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>83</v>
-      </c>
-      <c r="B105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" t="s">
-        <v>85</v>
-      </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>84</v>
-      </c>
-      <c r="B116" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>84</v>
-      </c>
-      <c r="B118" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>84</v>
-      </c>
-      <c r="B119" t="s">
-        <v>108</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>84</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>84</v>
-      </c>
-      <c r="B122" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" t="s">
-        <v>140</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>84</v>
-      </c>
-      <c r="B124" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" t="s">
-        <v>154</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>219</v>
-      </c>
-      <c r="B127" t="s">
-        <v>160</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" t="s">
-        <v>66</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>219</v>
-      </c>
-      <c r="B132" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>219</v>
-      </c>
-      <c r="B133" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>219</v>
-      </c>
-      <c r="B134" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D135" xr:uid="{FAA147C1-9686-4E8F-900B-0BDD3A167A87}"/>
-  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C135">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC000907-A5EB-4341-B642-9AE1FF7CC400}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -11037,811 +7454,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BF2CF-DA21-40C8-A13D-6CAA1DD80B8E}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C22">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA63883C-0CE9-49EE-B752-C990EEB29162}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C39:C57 C1:C36">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C57 C1:C36">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C57">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21267F1A-3001-4148-9909-E8C4D58FC8DD}">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
@@ -12594,11 +8220,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4111054-FDA5-2847-AC24-6863644DC81C}">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/Documents/GitHub/Decosus/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF4802F-3E40-0541-A540-400F9ECB7783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2D8B0-456F-2942-9E45-EBE0E98199DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="33520" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="479">
   <si>
     <t>Type</t>
   </si>
@@ -5211,8 +5211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123:C124"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5965,7 +5965,9 @@
       <c r="B64" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>312</v>
       </c>
@@ -7020,13 +7022,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D135" xr:uid="{48D8CAE7-6202-46D0-892E-92FC19BD528C}"/>
-  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C1048576 C8:C14">
+  <conditionalFormatting sqref="C1:C6 C16:C63 C117:C1048576 C8:C14 C65:C114">
     <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C1048576">
+  <conditionalFormatting sqref="C1:C6 C8:C63 C116:C1048576 C65:C114">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C63 C65:C1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7467,7 +7469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21267F1A-3001-4148-9909-E8C4D58FC8DD}">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/Documents/GitHub/Decosus/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2D8B0-456F-2942-9E45-EBE0E98199DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76281E5A-7673-254D-AE75-E017862B6888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="32720" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="478">
   <si>
     <t>Type</t>
   </si>
@@ -1252,9 +1252,6 @@
   </si>
   <si>
     <t>Monocytes_xcell</t>
-  </si>
-  <si>
-    <t>Monocytic lineage_MCP</t>
   </si>
   <si>
     <t>Myeloid dendritic cells_MCP</t>
@@ -2431,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5211,8 +5208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView topLeftCell="A71" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6097,9 +6094,7 @@
       <c r="B74" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
         <v>230</v>
       </c>
@@ -7467,10 +7462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21267F1A-3001-4148-9909-E8C4D58FC8DD}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7571,7 +7566,7 @@
         <v>366</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -7587,7 +7582,7 @@
         <v>369</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -7635,7 +7630,7 @@
         <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -7643,7 +7638,7 @@
         <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -7651,7 +7646,7 @@
         <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -7659,7 +7654,7 @@
         <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -7667,7 +7662,7 @@
         <v>380</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -7675,7 +7670,7 @@
         <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -7683,7 +7678,7 @@
         <v>382</v>
       </c>
       <c r="B26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -7691,7 +7686,7 @@
         <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -7699,7 +7694,7 @@
         <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -7707,7 +7702,7 @@
         <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -7731,7 +7726,7 @@
         <v>388</v>
       </c>
       <c r="B32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -7739,7 +7734,7 @@
         <v>389</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -7747,7 +7742,7 @@
         <v>390</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -7755,7 +7750,7 @@
         <v>391</v>
       </c>
       <c r="B35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -7763,7 +7758,7 @@
         <v>392</v>
       </c>
       <c r="B36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -7771,7 +7766,7 @@
         <v>393</v>
       </c>
       <c r="B37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -7779,7 +7774,7 @@
         <v>394</v>
       </c>
       <c r="B38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -7787,7 +7782,7 @@
         <v>395</v>
       </c>
       <c r="B39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -7795,7 +7790,7 @@
         <v>396</v>
       </c>
       <c r="B40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -7803,7 +7798,7 @@
         <v>397</v>
       </c>
       <c r="B41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -7811,7 +7806,7 @@
         <v>398</v>
       </c>
       <c r="B42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -7851,7 +7846,7 @@
         <v>405</v>
       </c>
       <c r="B47" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -7859,15 +7854,15 @@
         <v>406</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" t="s">
         <v>407</v>
-      </c>
-      <c r="B49" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -7875,7 +7870,7 @@
         <v>409</v>
       </c>
       <c r="B50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -7883,7 +7878,7 @@
         <v>410</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -7891,7 +7886,7 @@
         <v>411</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -7899,15 +7894,15 @@
         <v>412</v>
       </c>
       <c r="B53" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>414</v>
+      </c>
+      <c r="B54" t="s">
         <v>413</v>
-      </c>
-      <c r="B54" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -7915,7 +7910,7 @@
         <v>415</v>
       </c>
       <c r="B55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -7923,7 +7918,7 @@
         <v>416</v>
       </c>
       <c r="B56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -7931,7 +7926,7 @@
         <v>417</v>
       </c>
       <c r="B57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -7939,7 +7934,7 @@
         <v>418</v>
       </c>
       <c r="B58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -7947,7 +7942,7 @@
         <v>419</v>
       </c>
       <c r="B59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -7955,15 +7950,15 @@
         <v>420</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>422</v>
+      </c>
+      <c r="B61" t="s">
         <v>421</v>
-      </c>
-      <c r="B61" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -7971,7 +7966,7 @@
         <v>423</v>
       </c>
       <c r="B62" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -7979,7 +7974,7 @@
         <v>424</v>
       </c>
       <c r="B63" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -7987,7 +7982,7 @@
         <v>425</v>
       </c>
       <c r="B64" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -7995,7 +7990,7 @@
         <v>426</v>
       </c>
       <c r="B65" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -8003,7 +7998,7 @@
         <v>427</v>
       </c>
       <c r="B66" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -8011,7 +8006,7 @@
         <v>428</v>
       </c>
       <c r="B67" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -8019,7 +8014,7 @@
         <v>429</v>
       </c>
       <c r="B68" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -8027,7 +8022,7 @@
         <v>430</v>
       </c>
       <c r="B69" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -8035,7 +8030,7 @@
         <v>431</v>
       </c>
       <c r="B70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -8043,7 +8038,7 @@
         <v>432</v>
       </c>
       <c r="B71" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -8051,7 +8046,7 @@
         <v>433</v>
       </c>
       <c r="B72" t="s">
-        <v>454</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -8059,7 +8054,7 @@
         <v>434</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -8067,7 +8062,7 @@
         <v>435</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -8075,7 +8070,7 @@
         <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -8083,7 +8078,7 @@
         <v>437</v>
       </c>
       <c r="B76" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -8091,7 +8086,7 @@
         <v>438</v>
       </c>
       <c r="B77" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -8099,7 +8094,7 @@
         <v>439</v>
       </c>
       <c r="B78" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -8107,7 +8102,7 @@
         <v>440</v>
       </c>
       <c r="B79" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -8115,7 +8110,7 @@
         <v>441</v>
       </c>
       <c r="B80" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -8123,7 +8118,7 @@
         <v>442</v>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -8131,7 +8126,7 @@
         <v>443</v>
       </c>
       <c r="B82" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -8139,7 +8134,7 @@
         <v>444</v>
       </c>
       <c r="B83" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -8147,7 +8142,7 @@
         <v>445</v>
       </c>
       <c r="B84" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -8155,7 +8150,7 @@
         <v>446</v>
       </c>
       <c r="B85" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -8163,7 +8158,7 @@
         <v>447</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -8171,7 +8166,7 @@
         <v>448</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -8179,7 +8174,7 @@
         <v>449</v>
       </c>
       <c r="B88" t="s">
-        <v>455</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -8187,7 +8182,7 @@
         <v>450</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -8195,7 +8190,7 @@
         <v>451</v>
       </c>
       <c r="B90" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -8203,19 +8198,11 @@
         <v>452</v>
       </c>
       <c r="B91" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>453</v>
-      </c>
-      <c r="B92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B92">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8226,8 +8213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4111054-FDA5-2847-AC24-6863644DC81C}">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8252,7 +8239,7 @@
         <v>350</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -8263,13 +8250,13 @@
         <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -8302,7 +8289,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8313,13 +8300,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -8330,13 +8317,13 @@
         <v>246</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -8347,13 +8334,13 @@
         <v>248</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -8364,13 +8351,13 @@
         <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -8381,13 +8368,13 @@
         <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -8398,13 +8385,13 @@
         <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8415,13 +8402,13 @@
         <v>255</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -8432,13 +8419,13 @@
         <v>257</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8449,13 +8436,13 @@
         <v>258</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -8466,13 +8453,13 @@
         <v>260</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -8483,11 +8470,11 @@
         <v>262</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -8508,13 +8495,13 @@
         <v>264</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>265</v>
       </c>
       <c r="E18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -8529,7 +8516,7 @@
         <v>267</v>
       </c>
       <c r="E19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -8544,7 +8531,7 @@
         <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -8555,13 +8542,13 @@
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -8590,7 +8577,7 @@
         <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -8621,7 +8608,7 @@
         <v>274</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>275</v>
@@ -8639,7 +8626,7 @@
         <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -8672,11 +8659,11 @@
         <v>281</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -8713,7 +8700,7 @@
         <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -8724,13 +8711,13 @@
         <v>147</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -8741,13 +8728,13 @@
         <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -8764,7 +8751,7 @@
         <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -8795,13 +8782,13 @@
         <v>287</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -8838,7 +8825,7 @@
         <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -8889,13 +8876,13 @@
         <v>294</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -8922,7 +8909,7 @@
         <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -8939,7 +8926,7 @@
         <v>296</v>
       </c>
       <c r="E50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -8954,7 +8941,7 @@
         <v>298</v>
       </c>
       <c r="E51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -8975,13 +8962,13 @@
         <v>300</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>301</v>
       </c>
       <c r="E53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -9006,7 +8993,7 @@
         <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -9039,7 +9026,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -9084,7 +9071,7 @@
         <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -9095,13 +9082,13 @@
         <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -9116,7 +9103,7 @@
         <v>312</v>
       </c>
       <c r="E64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -9133,7 +9120,7 @@
         <v>227</v>
       </c>
       <c r="E65" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -9184,7 +9171,7 @@
         <v>321</v>
       </c>
       <c r="E69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -9195,13 +9182,13 @@
         <v>19</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E70" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -9218,7 +9205,7 @@
         <v>323</v>
       </c>
       <c r="E71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -9235,7 +9222,7 @@
         <v>296</v>
       </c>
       <c r="E72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -9246,13 +9233,13 @@
         <v>324</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -9262,14 +9249,12 @@
       <c r="B74" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
         <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -9284,7 +9269,7 @@
         <v>326</v>
       </c>
       <c r="E75" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -9295,13 +9280,13 @@
         <v>327</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -9318,7 +9303,7 @@
         <v>236</v>
       </c>
       <c r="E77" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -9343,7 +9328,7 @@
         <v>274</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>275</v>
@@ -9357,13 +9342,13 @@
         <v>328</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -9374,13 +9359,13 @@
         <v>329</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -9391,13 +9376,13 @@
         <v>330</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -9414,7 +9399,7 @@
         <v>230</v>
       </c>
       <c r="E83" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -9431,7 +9416,7 @@
         <v>236</v>
       </c>
       <c r="E84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -9448,7 +9433,7 @@
         <v>296</v>
       </c>
       <c r="E85" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -9459,13 +9444,13 @@
         <v>332</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -9476,13 +9461,13 @@
         <v>333</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -9499,7 +9484,7 @@
         <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -9510,13 +9495,13 @@
         <v>334</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E89" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -9527,7 +9512,7 @@
         <v>335</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>336</v>
@@ -9541,13 +9526,13 @@
         <v>337</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E91" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -9558,7 +9543,7 @@
         <v>338</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>275</v>
@@ -9572,13 +9557,13 @@
         <v>339</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -9589,13 +9574,13 @@
         <v>340</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E94" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -9626,7 +9611,7 @@
         <v>239</v>
       </c>
       <c r="E96" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -9643,7 +9628,7 @@
         <v>230</v>
       </c>
       <c r="E97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -9660,7 +9645,7 @@
         <v>296</v>
       </c>
       <c r="E98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -9677,7 +9662,7 @@
         <v>236</v>
       </c>
       <c r="E99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -9688,7 +9673,7 @@
         <v>343</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>336</v>
@@ -9702,13 +9687,13 @@
         <v>3</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E101" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -9731,7 +9716,7 @@
         <v>22</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>323</v>
@@ -9745,13 +9730,13 @@
         <v>33</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -9762,7 +9747,7 @@
         <v>37</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -9779,7 +9764,7 @@
         <v>239</v>
       </c>
       <c r="E106" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -9796,7 +9781,7 @@
         <v>284</v>
       </c>
       <c r="E107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -9813,7 +9798,7 @@
         <v>236</v>
       </c>
       <c r="E108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -9841,7 +9826,7 @@
         <v>296</v>
       </c>
       <c r="E110" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -9856,7 +9841,7 @@
         <v>320</v>
       </c>
       <c r="E111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -9867,13 +9852,13 @@
         <v>76</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E112" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -9890,7 +9875,7 @@
         <v>227</v>
       </c>
       <c r="E113" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -9901,13 +9886,13 @@
         <v>19</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -9918,10 +9903,10 @@
         <v>85</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E115" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -9932,13 +9917,13 @@
         <v>92</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E116" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -9955,7 +9940,7 @@
         <v>296</v>
       </c>
       <c r="E117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -9966,13 +9951,13 @@
         <v>102</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -9989,7 +9974,7 @@
         <v>227</v>
       </c>
       <c r="E119" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -10000,13 +9985,13 @@
         <v>115</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -10017,7 +10002,7 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -10034,7 +10019,7 @@
         <v>239</v>
       </c>
       <c r="E122" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -10045,13 +10030,13 @@
         <v>140</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -10062,13 +10047,13 @@
         <v>147</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E124" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -10079,13 +10064,13 @@
         <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E125" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -10102,7 +10087,7 @@
         <v>227</v>
       </c>
       <c r="E126" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -10113,13 +10098,13 @@
         <v>160</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E127" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -10136,7 +10121,7 @@
         <v>239</v>
       </c>
       <c r="E128" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -10153,7 +10138,7 @@
         <v>236</v>
       </c>
       <c r="E129" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -10170,7 +10155,7 @@
         <v>296</v>
       </c>
       <c r="E130" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -10181,13 +10166,13 @@
         <v>182</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>301</v>
       </c>
       <c r="E131" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -10198,7 +10183,7 @@
         <v>191</v>
       </c>
       <c r="E132" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -10209,7 +10194,7 @@
         <v>201</v>
       </c>
       <c r="E133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -10220,7 +10205,7 @@
         <v>210</v>
       </c>
       <c r="E134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -10231,7 +10216,7 @@
         <v>215</v>
       </c>
       <c r="E135" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Signatures.xlsx
+++ b/inst/extdata/Signatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chineduanene/Documents/GitHub/Decosus/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76281E5A-7673-254D-AE75-E017862B6888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8633D-E0A9-D34D-AB8F-138108912244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="32720" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="32720" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Immune" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Map_1!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Map_1!$A$1:$D$134</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="477">
   <si>
     <t>Type</t>
   </si>
@@ -1015,9 +1015,6 @@
   </si>
   <si>
     <t>Monocytic lineage</t>
-  </si>
-  <si>
-    <t>Macrophage/Monocyte</t>
   </si>
   <si>
     <t>Myeloid dendritic cells</t>
@@ -2035,7 +2032,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5206,10 +5213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5221,16 +5228,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6021,7 +6028,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>320</v>
@@ -6033,7 +6040,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>19</v>
@@ -6047,7 +6054,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>322</v>
@@ -6061,7 +6068,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
@@ -6075,7 +6082,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>324</v>
@@ -6089,7 +6096,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>325</v>
@@ -6101,389 +6108,391 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>275</v>
-      </c>
+      <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="D93" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E101" s="3"/>
+        <v>348</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="D102" s="2" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -6491,13 +6500,13 @@
         <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -6505,13 +6514,7 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -6519,7 +6522,13 @@
         <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -6527,13 +6536,13 @@
         <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -6541,13 +6550,13 @@
         <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -6555,13 +6564,7 @@
         <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -6569,7 +6572,13 @@
         <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -6577,13 +6586,11 @@
         <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>296</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -6591,11 +6598,13 @@
         <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="D111" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -6603,13 +6612,13 @@
         <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -6617,27 +6626,24 @@
         <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -6645,10 +6651,13 @@
         <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -6656,13 +6665,13 @@
         <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -6670,13 +6679,13 @@
         <v>84</v>
       </c>
       <c r="B117" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -6684,13 +6693,13 @@
         <v>84</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -6698,13 +6707,13 @@
         <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -6712,13 +6721,7 @@
         <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -6726,7 +6729,13 @@
         <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>42</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -6734,13 +6743,13 @@
         <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -6748,27 +6757,27 @@
         <v>84</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -6776,13 +6785,13 @@
         <v>219</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -6790,13 +6799,13 @@
         <v>219</v>
       </c>
       <c r="B126" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -6804,13 +6813,13 @@
         <v>219</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -6818,13 +6827,13 @@
         <v>219</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -6832,13 +6841,13 @@
         <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -6846,13 +6855,13 @@
         <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -6860,13 +6869,7 @@
         <v>219</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -6874,7 +6877,7 @@
         <v>219</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -6882,7 +6885,7 @@
         <v>219</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -6890,16 +6893,14 @@
         <v>219</v>
       </c>
       <c r="B134" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>215</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
@@ -7009,22 +7010,16 @@
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D135" xr:uid="{48D8CAE7-6202-46D0-892E-92FC19BD528C}"/>
-  <conditionalFormatting sqref="C1:C6 C16:C63 C117:C1048576 C8:C14 C65:C114">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  <autoFilter ref="A1:D134" xr:uid="{48D8CAE7-6202-46D0-892E-92FC19BD528C}"/>
+  <conditionalFormatting sqref="C116:C1048576 C1:C6 C16:C63 C8:C14 C65:C113">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C6 C8:C63 C116:C1048576 C65:C114">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  <conditionalFormatting sqref="C115:C1048576 C1:C6 C8:C63 C65:C113">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C63 C65:C1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7034,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC000907-A5EB-4341-B642-9AE1FF7CC400}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7047,24 +7042,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>237</v>
@@ -7075,10 +7070,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -7087,10 +7082,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -7099,7 +7094,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>229</v>
@@ -7113,7 +7108,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -7127,10 +7122,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>296</v>
@@ -7141,10 +7136,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -7153,10 +7148,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>225</v>
@@ -7167,7 +7162,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>313</v>
@@ -7179,10 +7174,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -7191,24 +7186,24 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>237</v>
@@ -7219,10 +7214,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -7231,10 +7226,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -7243,10 +7238,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>225</v>
@@ -7257,10 +7252,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -7269,7 +7264,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>42</v>
@@ -7281,7 +7276,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>229</v>
@@ -7295,10 +7290,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>296</v>
@@ -7309,7 +7304,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -7323,16 +7318,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7451,10 +7446,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7475,730 +7470,730 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
         <v>351</v>
-      </c>
-      <c r="B1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
         <v>353</v>
-      </c>
-      <c r="B2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
         <v>361</v>
-      </c>
-      <c r="B9" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" t="s">
         <v>363</v>
-      </c>
-      <c r="B10" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
         <v>367</v>
-      </c>
-      <c r="B13" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" t="s">
         <v>370</v>
-      </c>
-      <c r="B15" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" t="s">
         <v>399</v>
-      </c>
-      <c r="B43" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>401</v>
+      </c>
+      <c r="B45" t="s">
         <v>402</v>
-      </c>
-      <c r="B45" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48" t="s">
         <v>406</v>
-      </c>
-      <c r="B48" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>411</v>
+      </c>
+      <c r="B53" t="s">
         <v>412</v>
-      </c>
-      <c r="B53" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" t="s">
         <v>420</v>
-      </c>
-      <c r="B60" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B74" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B78" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B79" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B81" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B82" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B87" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B89" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B91" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -8211,10 +8206,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4111054-FDA5-2847-AC24-6863644DC81C}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8227,19 +8222,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -8250,13 +8245,13 @@
         <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -8289,7 +8284,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8300,13 +8295,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -8317,13 +8312,13 @@
         <v>246</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -8334,13 +8329,13 @@
         <v>248</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -8351,13 +8346,13 @@
         <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -8368,13 +8363,13 @@
         <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -8385,13 +8380,13 @@
         <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8402,13 +8397,13 @@
         <v>255</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -8419,13 +8414,13 @@
         <v>257</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8436,13 +8431,13 @@
         <v>258</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -8453,13 +8448,13 @@
         <v>260</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -8470,11 +8465,11 @@
         <v>262</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -8495,13 +8490,13 @@
         <v>264</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>265</v>
       </c>
       <c r="E18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -8516,7 +8511,7 @@
         <v>267</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -8531,7 +8526,7 @@
         <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -8542,13 +8537,13 @@
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -8577,7 +8572,7 @@
         <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -8608,7 +8603,7 @@
         <v>274</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>275</v>
@@ -8626,7 +8621,7 @@
         <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -8659,11 +8654,11 @@
         <v>281</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -8700,7 +8695,7 @@
         <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -8711,13 +8706,13 @@
         <v>147</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -8728,13 +8723,13 @@
         <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -8751,7 +8746,7 @@
         <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -8782,13 +8777,13 @@
         <v>287</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -8825,7 +8820,7 @@
         <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -8876,13 +8871,13 @@
         <v>294</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -8909,7 +8904,7 @@
         <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -8926,7 +8921,7 @@
         <v>296</v>
       </c>
       <c r="E50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -8941,7 +8936,7 @@
         <v>298</v>
       </c>
       <c r="E51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -8962,13 +8957,13 @@
         <v>300</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>301</v>
       </c>
       <c r="E53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -8993,7 +8988,7 @@
         <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -9026,7 +9021,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -9071,7 +9066,7 @@
         <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -9082,13 +9077,13 @@
         <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -9103,7 +9098,7 @@
         <v>312</v>
       </c>
       <c r="E64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -9120,7 +9115,7 @@
         <v>227</v>
       </c>
       <c r="E65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -9161,7 +9156,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>320</v>
@@ -9171,29 +9166,29 @@
         <v>321</v>
       </c>
       <c r="E69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>322</v>
@@ -9205,12 +9200,12 @@
         <v>323</v>
       </c>
       <c r="E71" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
@@ -9222,29 +9217,29 @@
         <v>296</v>
       </c>
       <c r="E72" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>324</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>325</v>
@@ -9254,106 +9249,108 @@
         <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>463</v>
+        <v>236</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" t="s">
-        <v>477</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>271</v>
+        <v>469</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>275</v>
+        <v>237</v>
+      </c>
+      <c r="E79" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E80" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>329</v>
@@ -9362,83 +9359,83 @@
         <v>471</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>472</v>
+        <v>230</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E83" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="E84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>296</v>
+        <v>465</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="E85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>332</v>
@@ -9447,111 +9444,111 @@
         <v>466</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="E86" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E87" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E88" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E89" t="s">
-        <v>477</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>336</v>
+        <v>237</v>
+      </c>
+      <c r="E90" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E91" t="s">
-        <v>477</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>338</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>275</v>
+        <v>238</v>
+      </c>
+      <c r="E92" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>339</v>
@@ -9560,123 +9557,123 @@
         <v>466</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>467</v>
+        <v>271</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E94" t="s">
-        <v>477</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>271</v>
+        <v>239</v>
+      </c>
+      <c r="E95" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="E97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="E98" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>236</v>
+        <v>474</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E99" t="s">
-        <v>477</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>343</v>
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>336</v>
+        <v>237</v>
+      </c>
+      <c r="E100" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -9684,16 +9681,11 @@
         <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>464</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E101" t="s">
-        <v>477</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -9701,11 +9693,13 @@
         <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="D102" s="2" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -9713,13 +9707,16 @@
         <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>323</v>
+        <v>240</v>
+      </c>
+      <c r="E103" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -9727,16 +9724,10 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E104" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -9744,10 +9735,16 @@
         <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>468</v>
+        <v>239</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -9755,16 +9752,16 @@
         <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="E106" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -9772,16 +9769,16 @@
         <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -9789,16 +9786,10 @@
         <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E108" t="s">
-        <v>477</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -9806,10 +9797,16 @@
         <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>296</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -9817,16 +9814,14 @@
         <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>296</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E110" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -9834,14 +9829,16 @@
         <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="D111" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E111" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -9849,16 +9846,16 @@
         <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="E112" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -9866,33 +9863,30 @@
         <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E113" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>225</v>
+        <v>465</v>
       </c>
       <c r="E114" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -9900,13 +9894,16 @@
         <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="E115" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -9914,16 +9911,16 @@
         <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>467</v>
+        <v>296</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="E116" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -9931,16 +9928,16 @@
         <v>84</v>
       </c>
       <c r="B117" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>296</v>
+        <v>463</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="E117" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -9948,16 +9945,16 @@
         <v>84</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E118" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -9965,16 +9962,16 @@
         <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -9982,16 +9979,10 @@
         <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="E120" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -9999,10 +9990,16 @@
         <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>42</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E121" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -10010,16 +10007,16 @@
         <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>239</v>
+        <v>471</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E122" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -10027,33 +10024,33 @@
         <v>84</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E123" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E124" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -10061,16 +10058,16 @@
         <v>219</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E125" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -10078,16 +10075,16 @@
         <v>219</v>
       </c>
       <c r="B126" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E126" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -10095,16 +10092,16 @@
         <v>219</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>467</v>
+        <v>239</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E127" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -10112,16 +10109,16 @@
         <v>219</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E128" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -10129,16 +10126,16 @@
         <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="E129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -10146,16 +10143,16 @@
         <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>296</v>
+        <v>472</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -10163,16 +10160,10 @@
         <v>219</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="E131" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -10180,10 +10171,10 @@
         <v>219</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E132" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -10191,10 +10182,10 @@
         <v>219</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E133" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -10202,31 +10193,23 @@
         <v>219</v>
       </c>
       <c r="B134" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E134" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>215</v>
-      </c>
-      <c r="E135" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C6 C16:C114 C117:C135 C8:C14">
+  <conditionalFormatting sqref="C116:C134 C1:C6 C16:C113 C8:C14">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:C134 C1:C6 C8:C113">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C6 C8:C114 C116:C135">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="C1:C134">
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C135">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
